--- a/_fase.xlsx
+++ b/_fase.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="75" windowWidth="23715" windowHeight="9780" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="raw mapping info" sheetId="2" r:id="rId2"/>
     <sheet name="Test Reduction" sheetId="3" r:id="rId3"/>
-    <sheet name="Performance" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="test augument" sheetId="6" r:id="rId4"/>
+    <sheet name="Performance" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="236">
   <si>
     <t>LOC</t>
   </si>
@@ -690,6 +691,42 @@
   </si>
   <si>
     <t>dd</t>
+  </si>
+  <si>
+    <t>a는</t>
+  </si>
+  <si>
+    <t># TotalCountR:</t>
+  </si>
+  <si>
+    <t># TotalCountC:</t>
+  </si>
+  <si>
+    <t># TotalCountRC:</t>
+  </si>
+  <si>
+    <t># TotalCountOther:</t>
+  </si>
+  <si>
+    <t># TotalCountCovered:</t>
+  </si>
+  <si>
+    <t># TotalOfCounterExample:</t>
+  </si>
+  <si>
+    <t>픈</t>
+  </si>
+  <si>
+    <t>% Others</t>
+  </si>
+  <si>
+    <t>% M-Sub</t>
+  </si>
+  <si>
+    <t>% M-Cond</t>
+  </si>
+  <si>
+    <t>% M-SubCond</t>
   </si>
 </sst>
 </file>
@@ -740,7 +777,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -811,11 +848,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -835,16 +883,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -853,7 +899,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1062,25 +1113,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51099520"/>
-        <c:axId val="51101056"/>
+        <c:axId val="98005376"/>
+        <c:axId val="98006912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51099520"/>
+        <c:axId val="98005376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="@" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51101056"/>
+        <c:crossAx val="98006912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51101056"/>
+        <c:axId val="98006912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100"/>
@@ -1089,7 +1140,7 @@
         <c:axPos val="l"/>
         <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51099520"/>
+        <c:crossAx val="98005376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20"/>
@@ -1126,13 +1177,274 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:style val="1"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12033433589041713"/>
+          <c:y val="0.19457914178465519"/>
+          <c:w val="0.82937965372354205"/>
+          <c:h val="0.64989446946613649"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'test augument'!$H$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'test augument'!$I$24:$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>% M-Sub</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% M-Cond</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>% M-SubCond</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>% Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'test augument'!$I$25:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21.830985915492899</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.9295774647887303</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.2676056338028</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>61.971830985915403</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'test augument'!$H$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>VMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'test augument'!$I$24:$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>% M-Sub</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% M-Cond</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>% M-SubCond</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>% Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'test augument'!$I$26:$L$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.4090909090908998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.37878787878787801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.89393939393939</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>94.318181818181799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'test augument'!$H$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ASMS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'test augument'!$I$24:$L$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>% M-Sub</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>% M-Cond</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>% M-SubCond</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>% Others</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'test augument'!$I$27:$L$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>16.296296296296202</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.6296296296296298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.4074074074074003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.6666666666666</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="112183552"/>
+        <c:axId val="112189440"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="112183552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112189440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="112189440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="112183552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30823115451179955"/>
+          <c:y val="7.5509307930514136E-2"/>
+          <c:w val="0.3967674856093632"/>
+          <c:h val="8.4008216839764824E-2"/>
+        </c:manualLayout>
+      </c:layout>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1200">
+          <a:latin typeface="Franklin Gothic Demi" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="9"/>
@@ -1292,24 +1604,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51659520"/>
-        <c:axId val="51661056"/>
+        <c:axId val="97913856"/>
+        <c:axId val="97940224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51659520"/>
+        <c:axId val="97913856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51661056"/>
+        <c:crossAx val="97940224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51661056"/>
+        <c:axId val="97940224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1327,7 +1639,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51659520"/>
+        <c:crossAx val="97913856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1358,13 +1670,13 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:style val="9"/>
@@ -1524,24 +1836,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="51690496"/>
-        <c:axId val="51700480"/>
+        <c:axId val="97973760"/>
+        <c:axId val="97975296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51690496"/>
+        <c:axId val="97973760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51700480"/>
+        <c:crossAx val="97975296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51700480"/>
+        <c:axId val="97975296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1559,14 +1871,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="51690496"/>
+        <c:crossAx val="97973760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
@@ -1590,7 +1901,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1632,6 +1943,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4182,7 +4528,7 @@
   <dimension ref="A4:Q48"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="B30" sqref="B30:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4316,31 +4662,31 @@
       <c r="B21" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="C21" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19" t="s">
+      <c r="G21" s="22"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19" t="s">
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
-      <c r="O21" s="19" t="s">
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="P21" s="19"/>
-      <c r="Q21" s="19"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="6"/>
@@ -4549,63 +4895,63 @@
         <v>222</v>
       </c>
       <c r="C26" s="5">
-        <f>AVERAGE(C23:C25)</f>
+        <f t="shared" ref="C26:Q26" si="0">AVERAGE(C23:C25)</f>
         <v>4.9722222222222205</v>
       </c>
       <c r="D26" s="5">
-        <f>AVERAGE(D23:D25)</f>
+        <f t="shared" si="0"/>
         <v>1.5833333333333286</v>
       </c>
       <c r="E26" s="5">
-        <f>AVERAGE(E23:E25)</f>
+        <f t="shared" si="0"/>
         <v>31.713747645951013</v>
       </c>
       <c r="F26" s="5">
-        <f>AVERAGE(F23:F25)</f>
+        <f t="shared" si="0"/>
         <v>9.3333333333333339</v>
       </c>
       <c r="G26" s="5">
-        <f>AVERAGE(G23:G25)</f>
+        <f t="shared" si="0"/>
         <v>3.3888888888888888</v>
       </c>
       <c r="H26" s="5">
-        <f>AVERAGE(H23:H25)</f>
+        <f t="shared" si="0"/>
         <v>36.2343112343112</v>
       </c>
       <c r="I26" s="5">
-        <f>AVERAGE(I23:I25)</f>
+        <f t="shared" si="0"/>
         <v>13.749999999999966</v>
       </c>
       <c r="J26" s="5">
-        <f>AVERAGE(J23:J25)</f>
+        <f t="shared" si="0"/>
         <v>4.9722222222222205</v>
       </c>
       <c r="K26" s="5">
-        <f>AVERAGE(K23:K25)</f>
+        <f t="shared" si="0"/>
         <v>36.194176438970594</v>
       </c>
       <c r="L26" s="5">
-        <f>AVERAGE(L23:L25)</f>
+        <f t="shared" si="0"/>
         <v>18.333333333333268</v>
       </c>
       <c r="M26" s="5">
-        <f>AVERAGE(M23:M25)</f>
+        <f t="shared" si="0"/>
         <v>6.0833333333333313</v>
       </c>
       <c r="N26" s="5">
-        <f>AVERAGE(N23:N25)</f>
+        <f t="shared" si="0"/>
         <v>33.556969491208946</v>
       </c>
       <c r="O26" s="5">
-        <f>AVERAGE(O23:O25)</f>
+        <f t="shared" si="0"/>
         <v>22.5833333333333</v>
       </c>
       <c r="P26" s="5">
-        <f>AVERAGE(P23:P25)</f>
+        <f t="shared" si="0"/>
         <v>7.5555555555555429</v>
       </c>
       <c r="Q26" s="5">
-        <f>AVERAGE(Q23:Q25)</f>
+        <f t="shared" si="0"/>
         <v>33.965356940738893</v>
       </c>
     </row>
@@ -4618,31 +4964,31 @@
       <c r="B30" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C30" s="22" t="s">
         <v>170</v>
       </c>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19" t="s">
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22" t="s">
         <v>171</v>
       </c>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19" t="s">
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+      <c r="I30" s="22" t="s">
         <v>172</v>
       </c>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19" t="s">
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22" t="s">
         <v>173</v>
       </c>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19" t="s">
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22" t="s">
         <v>174</v>
       </c>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="19"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="6"/>
@@ -4851,63 +5197,63 @@
         <v>222</v>
       </c>
       <c r="C35" s="5">
-        <f>AVERAGE(C32:C34)</f>
+        <f t="shared" ref="C35:Q35" si="1">AVERAGE(C32:C34)</f>
         <v>2.444444444444442</v>
       </c>
       <c r="D35" s="5">
-        <f>AVERAGE(D32:D34)</f>
+        <f t="shared" si="1"/>
         <v>7.838091027746187</v>
       </c>
       <c r="E35" s="5">
-        <f>AVERAGE(E32:E34)</f>
+        <f t="shared" si="1"/>
         <v>92.161908972253741</v>
       </c>
       <c r="F35" s="5">
-        <f>AVERAGE(F32:F34)</f>
+        <f t="shared" si="1"/>
         <v>7.6388888888888884</v>
       </c>
       <c r="G35" s="5">
-        <f>AVERAGE(G32:G34)</f>
+        <f t="shared" si="1"/>
         <v>19.378341964548852</v>
       </c>
       <c r="H35" s="5">
-        <f>AVERAGE(H32:H34)</f>
+        <f t="shared" si="1"/>
         <v>80.621658035451105</v>
       </c>
       <c r="I35" s="5">
-        <f>AVERAGE(I32:I34)</f>
+        <f t="shared" si="1"/>
         <v>8.055555555555534</v>
       </c>
       <c r="J35" s="5">
-        <f>AVERAGE(J32:J34)</f>
+        <f t="shared" si="1"/>
         <v>21.6322470632815</v>
       </c>
       <c r="K35" s="5">
-        <f>AVERAGE(K32:K34)</f>
+        <f t="shared" si="1"/>
         <v>78.367752936718432</v>
       </c>
       <c r="L35" s="5">
-        <f>AVERAGE(L32:L34)</f>
+        <f t="shared" si="1"/>
         <v>11.499999999999966</v>
       </c>
       <c r="M35" s="5">
-        <f>AVERAGE(M32:M34)</f>
+        <f t="shared" si="1"/>
         <v>27.024967369794897</v>
       </c>
       <c r="N35" s="5">
-        <f>AVERAGE(N32:N34)</f>
+        <f t="shared" si="1"/>
         <v>72.975032630205035</v>
       </c>
       <c r="O35" s="5">
-        <f>AVERAGE(O32:O34)</f>
+        <f t="shared" si="1"/>
         <v>13.805555555555552</v>
       </c>
       <c r="P35" s="5">
-        <f>AVERAGE(P32:P34)</f>
+        <f t="shared" si="1"/>
         <v>31.07974401077843</v>
       </c>
       <c r="Q35" s="5">
-        <f>AVERAGE(Q32:Q34)</f>
+        <f t="shared" si="1"/>
         <v>68.920255989221474</v>
       </c>
     </row>
@@ -5073,11 +5419,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:E30"/>
-    <mergeCell ref="F30:H30"/>
-    <mergeCell ref="I30:K30"/>
     <mergeCell ref="L30:N30"/>
     <mergeCell ref="O30:Q30"/>
     <mergeCell ref="C21:E21"/>
@@ -5085,6 +5426,11 @@
     <mergeCell ref="I21:K21"/>
     <mergeCell ref="L21:N21"/>
     <mergeCell ref="O21:Q21"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="I30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5093,9 +5439,402 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="11" max="11" width="31.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1">
+        <v>16.296296296296202</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="B2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2">
+        <v>9.6296296296296298</v>
+      </c>
+      <c r="H2" t="s">
+        <v>225</v>
+      </c>
+      <c r="I2" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="B3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C3">
+        <v>7.4074074074074003</v>
+      </c>
+      <c r="H3">
+        <v>16.296296296296202</v>
+      </c>
+      <c r="I3">
+        <v>9.6296296296296298</v>
+      </c>
+      <c r="J3">
+        <v>7.4074074074074003</v>
+      </c>
+      <c r="K3">
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C4">
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C9">
+        <v>21.830985915492899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" t="s">
+        <v>226</v>
+      </c>
+      <c r="C10">
+        <v>4.9295774647887303</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C11">
+        <v>11.2676056338028</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12">
+        <v>61.971830985915403</v>
+      </c>
+      <c r="H12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I12" t="s">
+        <v>226</v>
+      </c>
+      <c r="J12" t="s">
+        <v>227</v>
+      </c>
+      <c r="K12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="B13" t="s">
+        <v>230</v>
+      </c>
+      <c r="H13">
+        <v>3.4090909090908998</v>
+      </c>
+      <c r="I13">
+        <v>0.37878787878787801</v>
+      </c>
+      <c r="J13">
+        <v>1.89393939393939</v>
+      </c>
+      <c r="K13">
+        <v>94.318181818181799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="B14" t="s">
+        <v>225</v>
+      </c>
+      <c r="E14">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="B15" t="s">
+        <v>226</v>
+      </c>
+      <c r="E15">
+        <v>2.82258064516129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="B16" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16">
+        <v>6.4516129032257998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="B17" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17">
+        <v>35.4838709677419</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="H18" s="26"/>
+      <c r="I18" t="s">
+        <v>225</v>
+      </c>
+      <c r="J18" t="s">
+        <v>226</v>
+      </c>
+      <c r="K18" t="s">
+        <v>227</v>
+      </c>
+      <c r="L18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="H19" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10">
+        <v>21.830985915492899</v>
+      </c>
+      <c r="J19" s="10">
+        <v>4.9295774647887303</v>
+      </c>
+      <c r="K19" s="10">
+        <v>11.2676056338028</v>
+      </c>
+      <c r="L19" s="10">
+        <v>61.971830985915403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>231</v>
+      </c>
+      <c r="B20" t="s">
+        <v>225</v>
+      </c>
+      <c r="C20">
+        <v>3.4090909090908998</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="10">
+        <v>3.4090909090908998</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0.37878787878787801</v>
+      </c>
+      <c r="K20" s="10">
+        <v>1.89393939393939</v>
+      </c>
+      <c r="L20" s="10">
+        <v>94.318181818181799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="B21" t="s">
+        <v>226</v>
+      </c>
+      <c r="C21">
+        <v>0.37878787878787801</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" s="10">
+        <v>16.296296296296202</v>
+      </c>
+      <c r="J21" s="10">
+        <v>9.6296296296296298</v>
+      </c>
+      <c r="K21" s="10">
+        <v>7.4074074074074003</v>
+      </c>
+      <c r="L21" s="10">
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="B22" t="s">
+        <v>227</v>
+      </c>
+      <c r="C22">
+        <v>1.89393939393939</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I22" s="10">
+        <f>AVERAGE(I19:I21)</f>
+        <v>13.84545770696</v>
+      </c>
+      <c r="J22" s="10">
+        <f>AVERAGE(J19:J21)</f>
+        <v>4.9793316577354121</v>
+      </c>
+      <c r="K22" s="10">
+        <f>AVERAGE(K19:K21)</f>
+        <v>6.8563174783831968</v>
+      </c>
+      <c r="L22" s="10">
+        <f>AVERAGE(L19:L21)</f>
+        <v>74.318893156921277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="B23" t="s">
+        <v>228</v>
+      </c>
+      <c r="C23">
+        <v>94.318181818181799</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="H24" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="H25" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I25" s="10">
+        <v>21.830985915492899</v>
+      </c>
+      <c r="J25" s="10">
+        <v>4.9295774647887303</v>
+      </c>
+      <c r="K25" s="10">
+        <v>11.2676056338028</v>
+      </c>
+      <c r="L25" s="10">
+        <v>61.971830985915403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="H26" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="10">
+        <v>3.4090909090908998</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.37878787878787801</v>
+      </c>
+      <c r="K26" s="10">
+        <v>1.89393939393939</v>
+      </c>
+      <c r="L26" s="10">
+        <v>94.318181818181799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="H27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I27" s="10">
+        <v>16.296296296296202</v>
+      </c>
+      <c r="J27" s="10">
+        <v>9.6296296296296298</v>
+      </c>
+      <c r="K27" s="10">
+        <v>7.4074074074074003</v>
+      </c>
+      <c r="L27" s="10">
+        <v>66.6666666666666</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="H28" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="I28" s="10">
+        <f>AVERAGE(I25:I27)</f>
+        <v>13.84545770696</v>
+      </c>
+      <c r="J28" s="10">
+        <f>AVERAGE(J25:J27)</f>
+        <v>4.9793316577354121</v>
+      </c>
+      <c r="K28" s="10">
+        <f>AVERAGE(K25:K27)</f>
+        <v>6.8563174783831968</v>
+      </c>
+      <c r="L28" s="10">
+        <f>AVERAGE(L25:L27)</f>
+        <v>74.318893156921277</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H17:H18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:R122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B80" workbookViewId="0">
+    <sheetView topLeftCell="B80" workbookViewId="0">
       <selection activeCell="B94" sqref="B94:J100"/>
     </sheetView>
   </sheetViews>
@@ -5645,20 +6384,20 @@
     </row>
     <row r="73" spans="1:10">
       <c r="B73" s="1"/>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="25" t="s">
         <v>212</v>
       </c>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22" t="s">
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25" t="s">
         <v>213</v>
       </c>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22" t="s">
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25" t="s">
         <v>203</v>
       </c>
-      <c r="J73" s="22"/>
+      <c r="J73" s="25"/>
     </row>
     <row r="74" spans="1:10">
       <c r="B74" s="1" t="s">
@@ -5944,7 +6683,7 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="B92" s="25" t="s">
+      <c r="B92" s="19" t="s">
         <v>223</v>
       </c>
       <c r="D92" s="1">
@@ -6165,35 +6904,35 @@
         <v>222</v>
       </c>
       <c r="C100" s="11">
-        <f>AVERAGE(C97:C99)</f>
+        <f t="shared" ref="C100:J100" si="1">AVERAGE(C97:C99)</f>
         <v>69505</v>
       </c>
       <c r="D100" s="11">
-        <f>AVERAGE(D97:D99)</f>
+        <f t="shared" si="1"/>
         <v>3138.8888888888891</v>
       </c>
       <c r="E100" s="11">
-        <f>AVERAGE(E97:E99)</f>
+        <f t="shared" si="1"/>
         <v>5.4611111111110953</v>
       </c>
       <c r="F100" s="11">
-        <f>AVERAGE(F97:F99)</f>
+        <f t="shared" si="1"/>
         <v>11714.333333333334</v>
       </c>
       <c r="G100" s="11">
-        <f>AVERAGE(G97:G99)</f>
+        <f t="shared" si="1"/>
         <v>3138.8888888888891</v>
       </c>
       <c r="H100" s="11">
-        <f>AVERAGE(H97:H99)</f>
+        <f t="shared" si="1"/>
         <v>5.4611111111110953</v>
       </c>
       <c r="I100" s="11">
-        <f>AVERAGE(I97:I99)</f>
+        <f t="shared" si="1"/>
         <v>1677.6666666666667</v>
       </c>
       <c r="J100" s="11">
-        <f>AVERAGE(J97:J99)</f>
+        <f t="shared" si="1"/>
         <v>8.166666666666659</v>
       </c>
     </row>
@@ -6288,7 +7027,7 @@
         <v>0.76666666666666639</v>
       </c>
       <c r="E107" s="17">
-        <f t="shared" ref="E107:E108" si="1">C107+D107</f>
+        <f t="shared" ref="E107:E108" si="2">C107+D107</f>
         <v>3334.1000000000004</v>
       </c>
       <c r="F107" s="16">
@@ -6301,7 +7040,7 @@
         <v>0.76666666666666639</v>
       </c>
       <c r="I107" s="17">
-        <f t="shared" ref="I107:I108" si="2">G107+H107</f>
+        <f t="shared" ref="I107:I108" si="3">G107+H107</f>
         <v>3334.1000000000004</v>
       </c>
       <c r="J107" s="16">
@@ -6322,7 +7061,7 @@
         <v>11.366666666666621</v>
       </c>
       <c r="E108" s="17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4011.3666666666668</v>
       </c>
       <c r="F108" s="16">
@@ -6335,7 +7074,7 @@
         <v>11.366666666666621</v>
       </c>
       <c r="I108" s="17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4011.3666666666668</v>
       </c>
       <c r="J108" s="16">
@@ -6471,13 +7210,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="E66:G66"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="E56:G56"/>
     <mergeCell ref="D95:E95"/>
     <mergeCell ref="G95:H95"/>
     <mergeCell ref="C73:E73"/>
@@ -6486,6 +7218,13 @@
     <mergeCell ref="C94:E94"/>
     <mergeCell ref="F94:H94"/>
     <mergeCell ref="I94:J94"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="E66:G66"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="E56:G56"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -6493,7 +7232,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D10"/>
   <sheetViews>
